--- a/PlaceMapADM/Excel/Temp/template_account_checkin.xlsx
+++ b/PlaceMapADM/Excel/Temp/template_account_checkin.xlsx
@@ -16,8 +16,8 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="export">Sheet2!$A$2:$H$2</definedName>
-    <definedName name="header">Sheet2!$A$1:$H$1</definedName>
+    <definedName name="export">Sheet2!$A$2:$I$2</definedName>
+    <definedName name="header">Sheet2!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Tài khoản</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>Ngày checkin</t>
+  </si>
+  <si>
+    <t>&lt;code&gt;</t>
+  </si>
+  <si>
+    <t>Mã KH</t>
   </si>
 </sst>
 </file>
@@ -429,9 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -447,10 +451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,9 +466,10 @@
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="35.5703125" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -489,8 +494,11 @@
       <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -514,6 +522,9 @@
       </c>
       <c r="H2" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
